--- a/translation_country_codes_2.xlsx
+++ b/translation_country_codes_2.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cezary\Documents\IBL-PAN-Python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1602AF-D027-4B46-B9F1-9F8379AA84B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="367">
   <si>
     <t>MARC_name</t>
   </si>
@@ -1112,13 +1118,16 @@
   </si>
   <si>
     <t>CA-YT</t>
+  </si>
+  <si>
+    <t>Kolumna1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1177,17 +1186,79 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{095D5FBC-7DB5-4395-83E3-847BE16791A5}" name="Tabela1" displayName="Tabela1" ref="A1:C144" totalsRowShown="0">
+  <autoFilter ref="A1:C144" xr:uid="{095D5FBC-7DB5-4395-83E3-847BE16791A5}">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E89D71EC-5AFE-4639-8D53-D624F40C1C3E}" name="Kolumna1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{C14B2608-C227-4AF9-BD43-A98C69493BB3}" name="MARC_name"/>
+    <tableColumn id="3" xr3:uid="{BEDC148C-20C8-4731-8104-A0A08F046662}" name="iso_alpha_2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1225,9 +1296,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1259,9 +1330,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1293,9 +1382,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1468,14 +1575,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:C144"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>366</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1483,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1494,7 +1611,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1502,7 +1619,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1513,7 +1630,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1521,7 +1638,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1529,7 +1646,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1537,7 +1654,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1548,7 +1665,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1559,7 +1676,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1570,7 +1687,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1578,7 +1695,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1589,7 +1706,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1600,7 +1717,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1608,7 +1725,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1619,7 +1736,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1627,7 +1744,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1638,7 +1755,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1646,7 +1763,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1654,7 +1771,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1665,7 +1782,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1673,7 +1790,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1684,7 +1801,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,7 +1812,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1706,7 +1823,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1714,7 +1831,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1725,7 +1842,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1736,7 +1853,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1744,7 +1861,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1752,7 +1869,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1760,7 +1877,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1768,7 +1885,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,7 +1896,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1787,7 +1904,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -1798,7 +1915,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1809,7 +1926,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1820,7 +1937,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1831,7 +1948,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1839,7 +1956,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -1847,7 +1964,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -1855,7 +1972,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -1866,7 +1983,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1874,7 +1991,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1882,7 +1999,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1893,7 +2010,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1904,7 +2021,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,7 +2029,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -1923,7 +2040,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -1931,7 +2048,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -1939,7 +2056,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -1947,7 +2064,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
@@ -1958,7 +2075,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
@@ -1969,7 +2086,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
@@ -1980,7 +2097,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
@@ -1991,7 +2108,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -1999,7 +2116,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -2010,7 +2127,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
@@ -2021,7 +2138,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -2032,7 +2149,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
@@ -2043,7 +2160,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -2054,7 +2171,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
@@ -2062,7 +2179,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
@@ -2070,7 +2187,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
@@ -2081,7 +2198,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
@@ -2092,7 +2209,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
@@ -2103,7 +2220,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
@@ -2114,7 +2231,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
@@ -2125,7 +2242,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
@@ -2136,7 +2253,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
@@ -2147,7 +2264,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
@@ -2158,7 +2275,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
@@ -2166,7 +2283,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
@@ -2177,7 +2294,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
@@ -2188,7 +2305,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
@@ -2199,7 +2316,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
@@ -2210,7 +2327,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
@@ -2221,7 +2338,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
@@ -2232,7 +2349,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
@@ -2243,7 +2360,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
@@ -2254,7 +2371,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
@@ -2265,7 +2382,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
@@ -2276,7 +2393,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
@@ -2287,7 +2404,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
@@ -2295,7 +2412,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
@@ -2303,7 +2420,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
@@ -2314,7 +2431,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
@@ -2322,7 +2439,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
@@ -2333,7 +2450,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
@@ -2344,7 +2461,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
@@ -2355,7 +2472,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
@@ -2363,7 +2480,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
@@ -2371,7 +2488,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
@@ -2379,7 +2496,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
@@ -2390,7 +2507,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
@@ -2401,7 +2518,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
@@ -2409,7 +2526,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
@@ -2417,7 +2534,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>97</v>
       </c>
@@ -2428,7 +2545,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>98</v>
       </c>
@@ -2439,7 +2556,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>99</v>
       </c>
@@ -2447,7 +2564,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
@@ -2455,7 +2572,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
@@ -2463,7 +2580,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
@@ -2471,7 +2588,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>103</v>
       </c>
@@ -2482,7 +2599,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>104</v>
       </c>
@@ -2493,7 +2610,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>105</v>
       </c>
@@ -2501,7 +2618,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>106</v>
       </c>
@@ -2512,7 +2629,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>107</v>
       </c>
@@ -2520,7 +2637,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>108</v>
       </c>
@@ -2528,7 +2645,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>109</v>
       </c>
@@ -2536,7 +2653,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>110</v>
       </c>
@@ -2544,7 +2661,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
@@ -2552,7 +2669,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>112</v>
       </c>
@@ -2560,7 +2677,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>113</v>
       </c>
@@ -2568,7 +2685,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>114</v>
       </c>
@@ -2576,7 +2693,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>115</v>
       </c>
@@ -2587,7 +2704,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>116</v>
       </c>
@@ -2595,7 +2712,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>117</v>
       </c>
@@ -2606,7 +2723,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>118</v>
       </c>
@@ -2614,7 +2731,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>119</v>
       </c>
@@ -2622,7 +2739,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>120</v>
       </c>
@@ -2633,7 +2750,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>121</v>
       </c>
@@ -2641,7 +2758,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>122</v>
       </c>
@@ -2652,7 +2769,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>123</v>
       </c>
@@ -2663,7 +2780,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>124</v>
       </c>
@@ -2671,7 +2788,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>125</v>
       </c>
@@ -2682,7 +2799,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>126</v>
       </c>
@@ -2693,7 +2810,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>127</v>
       </c>
@@ -2701,7 +2818,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>128</v>
       </c>
@@ -2712,7 +2829,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>129</v>
       </c>
@@ -2723,7 +2840,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>130</v>
       </c>
@@ -2734,7 +2851,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>131</v>
       </c>
@@ -2745,7 +2862,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>132</v>
       </c>
@@ -2756,7 +2873,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>133</v>
       </c>
@@ -2764,7 +2881,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>134</v>
       </c>
@@ -2772,7 +2889,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>135</v>
       </c>
@@ -2783,7 +2900,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>136</v>
       </c>
@@ -2794,7 +2911,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>137</v>
       </c>
@@ -2805,7 +2922,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>138</v>
       </c>
@@ -2813,7 +2930,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>139</v>
       </c>
@@ -2824,7 +2941,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>140</v>
       </c>
@@ -2832,7 +2949,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>141</v>
       </c>
@@ -2840,7 +2957,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>142</v>
       </c>
@@ -2851,7 +2968,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>143</v>
       </c>
@@ -2859,7 +2976,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>144</v>
       </c>
@@ -2869,5 +2986,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>